--- a/Data/Tables/ShopDefine.xlsx
+++ b/Data/Tables/ShopDefine.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>商店ID</t>
   </si>
@@ -40,12 +40,18 @@
     <t>介绍</t>
   </si>
   <si>
+    <t>刷新时间</t>
+  </si>
+  <si>
     <t>Integer</t>
   </si>
   <si>
     <t>String</t>
   </si>
   <si>
+    <t>Float</t>
+  </si>
+  <si>
     <t>Key</t>
   </si>
   <si>
@@ -56,6 +62,9 @@
   </si>
   <si>
     <t>Description</t>
+  </si>
+  <si>
+    <t>RefreshTime</t>
   </si>
   <si>
     <t>种子商店</t>
@@ -779,13 +788,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:D9" totalsRowShown="0">
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A3:D9" etc:filterBottomFollowUsedRange="0"/>
-  <tableColumns count="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:E9" totalsRowShown="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A3:E9" etc:filterBottomFollowUsedRange="0"/>
+  <tableColumns count="5">
     <tableColumn id="1" name="Key"/>
     <tableColumn id="2" name="ID"/>
     <tableColumn id="3" name="Name"/>
-    <tableColumn id="6" name="Description"/>
+    <tableColumn id="4" name="Description"/>
+    <tableColumn id="6" name="RefreshTime"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1041,21 +1051,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="16.1851851851852" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
     <col min="4" max="4" width="43.5555555555556" customWidth="1"/>
-    <col min="6" max="6" width="11.9074074074074" customWidth="1"/>
+    <col min="5" max="5" width="13.4444444444444" customWidth="1"/>
+    <col min="7" max="7" width="11.9074074074074" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1066,42 +1077,51 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1"/>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="2"/>
+        <v>5</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:5">
       <c r="A4" s="4">
         <v>1</v>
       </c>
@@ -1109,13 +1129,16 @@
         <v>1</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>10</v>
+        <v>13</v>
+      </c>
+      <c r="E4" s="4">
+        <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:5">
       <c r="A5" s="4">
         <v>2</v>
       </c>
@@ -1123,13 +1146,16 @@
         <v>2</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>12</v>
+        <v>15</v>
+      </c>
+      <c r="E5" s="4">
+        <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:5">
       <c r="A6" s="4">
         <v>3</v>
       </c>
@@ -1138,8 +1164,11 @@
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
+      <c r="E6" s="4">
+        <v>6</v>
+      </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:5">
       <c r="A7" s="4">
         <v>4</v>
       </c>
@@ -1148,18 +1177,35 @@
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
+      <c r="E7" s="4">
+        <v>6</v>
+      </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
+    <row r="8" spans="1:5">
+      <c r="A8" s="4">
+        <v>5</v>
+      </c>
+      <c r="B8" s="4">
+        <v>6</v>
+      </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
+      <c r="E8" s="4">
+        <v>6</v>
+      </c>
     </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
+    <row r="9" spans="1:5">
+      <c r="A9" s="4">
+        <v>6</v>
+      </c>
+      <c r="B9" s="4">
+        <v>6</v>
+      </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
+      <c r="E9" s="4">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/Tables/ShopDefine.xlsx
+++ b/Data/Tables/ShopDefine.xlsx
@@ -70,7 +70,7 @@
     <t>种子商店</t>
   </si>
   <si>
-    <t>不是种子商店</t>
+    <t>欢迎来到我的种子商店，看看想种点什么?</t>
   </si>
   <si>
     <t>家具商店</t>
@@ -1054,7 +1054,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
